--- a/CompArchDocs/instruction_table.xlsx
+++ b/CompArchDocs/instruction_table.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\COSJava\Repositories\ComputerArchitecture\CompArchDocs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>syntax</t>
   </si>
@@ -111,6 +106,27 @@
   </si>
   <si>
     <t>80</t>
+  </si>
+  <si>
+    <t>add R0, R1, R2</t>
+  </si>
+  <si>
+    <t>R0 = R1 + R2</t>
+  </si>
+  <si>
+    <t>B{condition} label</t>
+  </si>
+  <si>
+    <t>branch if condition</t>
+  </si>
+  <si>
+    <t>if (c) PC = label</t>
+  </si>
+  <si>
+    <t>101 at bits 27:25</t>
+  </si>
+  <si>
+    <t>0100 bits 24:21</t>
   </si>
 </sst>
 </file>
@@ -421,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,8 +454,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
@@ -482,7 +498,18 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -511,23 +538,34 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
